--- a/AAII_Financials/Yearly/KGNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KGNR_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>KGNR</t>
   </si>
@@ -303,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,58 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43434</v>
+      </c>
+      <c r="G7" s="2">
         <v>43069</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>42704</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>42338</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>41973</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>41608</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,9 +741,18 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,9 +777,18 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +813,18 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +836,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +865,18 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +901,18 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -874,15 +931,24 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +973,18 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,13 +993,16 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -933,20 +1011,29 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -960,20 +1047,29 @@
         <v>-500</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1081,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -997,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1005,96 +1104,132 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1119,9 +1254,18 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1290,90 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1398,18 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1434,18 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1470,18 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,9 +1506,18 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1321,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1329,42 +1536,60 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1614,95 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43434</v>
+      </c>
+      <c r="G38" s="2">
         <v>43069</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>42704</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>42338</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>41973</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>41608</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1714,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,16 +1730,19 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1495,15 +1753,24 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1517,20 +1784,29 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1555,9 +1831,18 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,24 +1867,33 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,51 +1903,69 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,9 +1975,18 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1690,9 +2011,18 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1717,9 +2047,18 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +2083,18 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,9 +2119,18 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1798,9 +2155,18 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +2191,54 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +2250,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,35 +2266,47 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1915,26 +2314,35 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1953,15 +2361,24 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1969,26 +2386,35 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,9 +2439,18 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2040,9 +2475,18 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2511,18 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2547,18 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,9 +2583,18 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2131,26 +2602,35 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2642,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2671,18 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2707,18 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2743,18 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2779,54 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-500</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2851,18 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2887,18 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2923,54 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2995,95 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43434</v>
+      </c>
+      <c r="G80" s="2">
         <v>43069</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>42704</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>42338</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>41973</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>41608</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,8 +3095,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2530,9 +3124,18 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +3160,18 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +3196,18 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +3232,18 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +3268,18 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,9 +3304,18 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2686,15 +3334,24 @@
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,8 +3363,11 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2732,9 +3392,18 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +3428,18 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,9 +3464,18 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2813,9 +3500,18 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3523,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3552,18 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3588,18 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3624,18 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,9 +3660,18 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -2955,15 +3690,24 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2988,9 +3732,18 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3009,13 +3762,22 @@
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3"/>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KGNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KGNR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>KGNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,61 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43434</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43069</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42704</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42338</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41973</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41608</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,9 +753,12 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,9 +792,12 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,21 +941,21 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,8 +1021,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1008,32 +1034,35 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1044,32 +1073,35 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1096,11 +1129,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1113,15 +1146,18 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,32 +1168,35 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1167,8 +1206,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1179,8 +1218,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1191,45 +1230,51 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1528,11 +1597,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1545,51 +1614,57 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43434</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43069</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42704</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42338</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41973</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41608</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,19 +1818,20 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1762,20 +1848,23 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1784,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1804,9 +1893,12 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1971,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1888,15 +1986,15 @@
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,9 +2010,12 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1928,11 +2029,11 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -1942,15 +2043,18 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1963,12 +2067,12 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,9 +2088,12 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2020,9 +2127,12 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,9 +2322,12 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2216,11 +2341,11 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2230,15 +2355,18 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2398,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2283,8 +2413,8 @@
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2292,8 +2422,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,14 +2434,17 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2323,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2340,9 +2473,12 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2370,20 +2506,23 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -2395,26 +2534,29 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,9 +2590,12 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,14 +2746,17 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
+      <c r="D66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2611,26 +2768,29 @@
         <v>0</v>
       </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,14 +2958,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E72" s="3">
         <v>-1300</v>
@@ -2804,29 +2977,32 @@
         <v>-1300</v>
       </c>
       <c r="G72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,14 +3114,17 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -2948,29 +3133,32 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43434</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43069</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42704</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42338</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41973</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41608</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,8 +3295,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,14 +3526,17 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3343,15 +3559,18 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,8 +3585,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,9 +3699,12 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,14 +3911,17 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3699,15 +3944,18 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3741,9 +3989,12 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3771,13 +4022,16 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KGNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KGNR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>KGNR</t>
   </si>
@@ -1239,8 +1239,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1356,8 +1356,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1395,8 +1395,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1629,8 +1629,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1707,8 +1707,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2404,17 +2404,17 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2443,11 +2443,11 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2483,13 +2483,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2755,8 +2755,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -3245,8 +3245,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/KGNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KGNR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>KGNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,64 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43069</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42704</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42338</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41973</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41608</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -756,9 +759,12 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,9 +801,12 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,14 +945,17 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -944,21 +963,21 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,9 +987,12 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,13 +1047,14 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1037,32 +1063,35 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1076,32 +1105,35 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1149,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1132,11 +1165,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1149,20 +1182,23 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1171,32 +1207,35 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1209,8 +1248,8 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1221,8 +1260,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1233,14 +1272,17 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1249,32 +1291,35 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,14 +1398,17 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1366,37 +1417,40 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1405,32 +1459,35 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,9 +1650,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1600,11 +1669,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1617,20 +1686,23 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1639,32 +1711,35 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,14 +1776,17 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1717,76 +1795,82 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43069</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42704</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42338</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41973</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41608</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,22 +1904,23 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1851,23 +1937,26 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1876,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1896,9 +1985,12 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1935,9 +2027,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,9 +2069,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1989,15 +2087,15 @@
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,9 +2111,12 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2032,11 +2133,11 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2046,15 +2147,18 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2070,12 +2174,12 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,9 +2195,12 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2130,9 +2237,12 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,9 +2363,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,9 +2447,12 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2344,11 +2469,11 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2358,15 +2483,18 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,8 +2528,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2425,8 +2555,8 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2437,9 +2567,12 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2449,8 +2582,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2459,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2476,23 +2609,26 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2509,24 +2645,27 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -2537,26 +2676,29 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2593,9 +2735,12 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,18 +2903,21 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
@@ -2771,26 +2928,29 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,17 +3131,20 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1300</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
@@ -2980,29 +3153,32 @@
         <v>-1300</v>
       </c>
       <c r="H72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,18 +3299,21 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
@@ -3136,29 +3321,32 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,58 +3383,64 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43069</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42704</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42338</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41973</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41608</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3255,32 +3449,35 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,8 +3493,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,18 +3742,21 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -3562,15 +3778,18 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,8 +3805,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,9 +3928,12 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,18 +4156,21 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3947,15 +4192,18 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3992,9 +4240,12 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4025,13 +4276,16 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
